--- a/ind_JULIO.xlsx
+++ b/ind_JULIO.xlsx
@@ -966,9 +966,15 @@
     <t xml:space="preserve">C11011104</t>
   </si>
   <si>
+    <t xml:space="preserve">C10201201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10401101</t>
   </si>
   <si>
+    <t xml:space="preserve">C28251103</t>
+  </si>
+  <si>
     <t xml:space="preserve">C25991107</t>
   </si>
   <si>
@@ -981,13 +987,7 @@
     <t xml:space="preserve">C30911101</t>
   </si>
   <si>
-    <t xml:space="preserve">C10201201</t>
-  </si>
-  <si>
     <t xml:space="preserve">C23941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28251103</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>88.2991756296547</v>
+        <v>86.7527573985088</v>
       </c>
     </row>
     <row r="9">
@@ -1412,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>104.078288126431</v>
+        <v>104.062499977489</v>
       </c>
     </row>
     <row r="13">
@@ -1420,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>111.442306121128</v>
+        <v>100.054334636535</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>96.7486288170309</v>
+        <v>96.748550541874</v>
       </c>
     </row>
     <row r="15">
@@ -1500,7 +1500,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>97.8155138344157</v>
+        <v>100.428647297148</v>
       </c>
     </row>
     <row r="24">
@@ -1548,7 +1548,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>98.8821384452818</v>
+        <v>102.653325512885</v>
       </c>
     </row>
     <row r="30">
@@ -1556,7 +1556,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>103.25733502655</v>
+        <v>98.6632468211242</v>
       </c>
     </row>
     <row r="31">
@@ -1564,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>99.56266993476</v>
+        <v>99.5599643397003</v>
       </c>
     </row>
     <row r="32">
@@ -1620,7 +1620,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>91.3420963075678</v>
+        <v>100.349476791758</v>
       </c>
     </row>
     <row r="39">
@@ -1644,7 +1644,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>96.6622003288248</v>
+        <v>96.5924178515387</v>
       </c>
     </row>
     <row r="42">
@@ -1732,7 +1732,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>101.57958258029</v>
+        <v>100.748740241536</v>
       </c>
     </row>
     <row r="53">
@@ -1748,7 +1748,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>100.960208593887</v>
+        <v>100.958506279567</v>
       </c>
     </row>
     <row r="55">
@@ -1756,7 +1756,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>99.2685617085239</v>
+        <v>99.6230330298971</v>
       </c>
     </row>
     <row r="56">
@@ -1780,7 +1780,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>95.9317123469164</v>
+        <v>99.6966888768764</v>
       </c>
     </row>
     <row r="59">
@@ -1788,7 +1788,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>102.090386243568</v>
+        <v>102.655684969652</v>
       </c>
     </row>
     <row r="60">
@@ -1796,7 +1796,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>100.679987131412</v>
+        <v>107.782220411938</v>
       </c>
     </row>
     <row r="61">
@@ -1812,7 +1812,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>96.6995129114446</v>
+        <v>95.0140840291804</v>
       </c>
     </row>
     <row r="63">
@@ -1820,7 +1820,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>92.1243423122763</v>
+        <v>101.216814431828</v>
       </c>
     </row>
     <row r="64">
@@ -1852,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>113.381257552098</v>
+        <v>114.506028879872</v>
       </c>
     </row>
     <row r="68">
@@ -1876,7 +1876,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>99.2906081592309</v>
+        <v>99.2544984395721</v>
       </c>
     </row>
     <row r="71">
@@ -1892,7 +1892,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="73">
@@ -1940,7 +1940,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>101.71563360402</v>
+        <v>101.700301704081</v>
       </c>
     </row>
     <row r="79">
@@ -2044,7 +2044,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>100.161378472096</v>
+        <v>100.151819114478</v>
       </c>
     </row>
   </sheetData>
@@ -2136,13 +2136,13 @@
         <v>99</v>
       </c>
       <c r="B6" t="n">
-        <v>63.5249941314526</v>
+        <v>63.0159328911504</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>96.9180654715982</v>
+        <v>96.1414069092288</v>
       </c>
     </row>
     <row r="7">
@@ -2150,13 +2150,13 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>180.76651774564</v>
+        <v>180.758897513384</v>
       </c>
       <c r="C7" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D7" t="n">
-        <v>102.257838427927</v>
+        <v>102.253527737603</v>
       </c>
     </row>
     <row r="8">
@@ -2164,13 +2164,13 @@
         <v>101</v>
       </c>
       <c r="B8" t="n">
-        <v>470.060131913442</v>
+        <v>433.599099044208</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>108.086795615104</v>
+        <v>99.7028550507123</v>
       </c>
     </row>
     <row r="9">
@@ -2248,13 +2248,13 @@
         <v>107</v>
       </c>
       <c r="B14" t="n">
-        <v>309.594955840429</v>
+        <v>311.483333918753</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>99.4926893826033</v>
+        <v>100.099546212921</v>
       </c>
     </row>
     <row r="15">
@@ -2332,13 +2332,13 @@
         <v>113</v>
       </c>
       <c r="B20" t="n">
-        <v>352.474857188663</v>
+        <v>365.917614839185</v>
       </c>
       <c r="C20" t="n">
         <v>3.56459581811847</v>
       </c>
       <c r="D20" t="n">
-        <v>98.8821384452818</v>
+        <v>102.653325512885</v>
       </c>
     </row>
     <row r="21">
@@ -2346,13 +2346,13 @@
         <v>114</v>
       </c>
       <c r="B21" t="n">
-        <v>296.698594043964</v>
+        <v>283.497986928611</v>
       </c>
       <c r="C21" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D21" t="n">
-        <v>103.25733502655</v>
+        <v>98.6632468211242</v>
       </c>
     </row>
     <row r="22">
@@ -2360,13 +2360,13 @@
         <v>115</v>
       </c>
       <c r="B22" t="n">
-        <v>30.7710634827386</v>
+        <v>30.7702272854229</v>
       </c>
       <c r="C22" t="n">
         <v>0.309062256997545</v>
       </c>
       <c r="D22" t="n">
-        <v>99.56266993476</v>
+        <v>99.5599643397003</v>
       </c>
     </row>
     <row r="23">
@@ -2444,13 +2444,13 @@
         <v>121</v>
       </c>
       <c r="B28" t="n">
-        <v>78.9246755134956</v>
+        <v>86.7075555948495</v>
       </c>
       <c r="C28" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D28" t="n">
-        <v>91.3420963075678</v>
+        <v>100.349476791758</v>
       </c>
     </row>
     <row r="29">
@@ -2486,13 +2486,13 @@
         <v>124</v>
       </c>
       <c r="B31" t="n">
-        <v>359.624388131187</v>
+        <v>359.364767714821</v>
       </c>
       <c r="C31" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D31" t="n">
-        <v>96.6622003288248</v>
+        <v>96.5924178515387</v>
       </c>
     </row>
     <row r="32">
@@ -2612,13 +2612,13 @@
         <v>133</v>
       </c>
       <c r="B40" t="n">
-        <v>277.439645487298</v>
+        <v>275.170403991473</v>
       </c>
       <c r="C40" t="n">
         <v>2.73125404180515</v>
       </c>
       <c r="D40" t="n">
-        <v>101.57958258029</v>
+        <v>100.748740241536</v>
       </c>
     </row>
     <row r="41">
@@ -2640,13 +2640,13 @@
         <v>135</v>
       </c>
       <c r="B42" t="n">
-        <v>159.991638565328</v>
+        <v>159.988940907892</v>
       </c>
       <c r="C42" t="n">
         <v>1.58469996044575</v>
       </c>
       <c r="D42" t="n">
-        <v>100.960208593887</v>
+        <v>100.958506279567</v>
       </c>
     </row>
     <row r="43">
@@ -2654,13 +2654,13 @@
         <v>136</v>
       </c>
       <c r="B43" t="n">
-        <v>241.567867561555</v>
+        <v>242.430465747144</v>
       </c>
       <c r="C43" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D43" t="n">
-        <v>99.2685617085239</v>
+        <v>99.6230330298971</v>
       </c>
     </row>
     <row r="44">
@@ -2696,13 +2696,13 @@
         <v>139</v>
       </c>
       <c r="B46" t="n">
-        <v>237.48737150014</v>
+        <v>246.807901260168</v>
       </c>
       <c r="C46" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D46" t="n">
-        <v>95.9317123469164</v>
+        <v>99.6966888768764</v>
       </c>
     </row>
     <row r="47">
@@ -2710,13 +2710,13 @@
         <v>140</v>
       </c>
       <c r="B47" t="n">
-        <v>146.607824130039</v>
+        <v>147.419626487383</v>
       </c>
       <c r="C47" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D47" t="n">
-        <v>102.090386243568</v>
+        <v>102.655684969652</v>
       </c>
     </row>
     <row r="48">
@@ -2724,13 +2724,13 @@
         <v>141</v>
       </c>
       <c r="B48" t="n">
-        <v>324.962692195835</v>
+        <v>347.886422255812</v>
       </c>
       <c r="C48" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D48" t="n">
-        <v>100.679987131412</v>
+        <v>107.782220411938</v>
       </c>
     </row>
     <row r="49">
@@ -2752,13 +2752,13 @@
         <v>143</v>
       </c>
       <c r="B50" t="n">
-        <v>70.2221640167015</v>
+        <v>68.9982233799247</v>
       </c>
       <c r="C50" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D50" t="n">
-        <v>96.6995129114446</v>
+        <v>95.0140840291804</v>
       </c>
     </row>
     <row r="51">
@@ -2766,13 +2766,13 @@
         <v>144</v>
       </c>
       <c r="B51" t="n">
-        <v>438.095109610693</v>
+        <v>480.612854058491</v>
       </c>
       <c r="C51" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D51" t="n">
-        <v>92.2253261503492</v>
+        <v>101.175923321726</v>
       </c>
     </row>
     <row r="52">
@@ -2794,13 +2794,13 @@
         <v>146</v>
       </c>
       <c r="B53" t="n">
-        <v>91.161635134798</v>
+        <v>91.9325409069588</v>
       </c>
       <c r="C53" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D53" t="n">
-        <v>110.894958627137</v>
+        <v>111.832738687607</v>
       </c>
     </row>
     <row r="54">
@@ -2836,13 +2836,13 @@
         <v>149</v>
       </c>
       <c r="B56" t="n">
-        <v>100.903864846098</v>
+        <v>100.867168421939</v>
       </c>
       <c r="C56" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D56" t="n">
-        <v>99.2906081592309</v>
+        <v>99.2544984395721</v>
       </c>
     </row>
     <row r="57">
@@ -2864,13 +2864,13 @@
         <v>151</v>
       </c>
       <c r="B58" t="n">
-        <v>18.0762459239864</v>
+        <v>19.2114822268247</v>
       </c>
       <c r="C58" t="n">
         <v>0.191526725190851</v>
       </c>
       <c r="D58" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="59">
@@ -2948,13 +2948,13 @@
         <v>157</v>
       </c>
       <c r="B64" t="n">
-        <v>203.228061087773</v>
+        <v>203.197427917756</v>
       </c>
       <c r="C64" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D64" t="n">
-        <v>101.71563360402</v>
+        <v>101.700301704081</v>
       </c>
     </row>
     <row r="65">
@@ -3130,13 +3130,13 @@
         <v>170</v>
       </c>
       <c r="B77" t="n">
-        <v>82.8523773030584</v>
+        <v>82.8444699088496</v>
       </c>
       <c r="C77" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D77" t="n">
-        <v>100.161378472096</v>
+        <v>100.151819114478</v>
       </c>
     </row>
   </sheetData>
@@ -3186,13 +3186,13 @@
         <v>173</v>
       </c>
       <c r="B3" t="n">
-        <v>63.5249941314526</v>
+        <v>63.0159328911504</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>96.9180654715982</v>
+        <v>96.1414069092288</v>
       </c>
     </row>
     <row r="4">
@@ -3200,13 +3200,13 @@
         <v>174</v>
       </c>
       <c r="B4" t="n">
-        <v>180.76651774564</v>
+        <v>180.758897513384</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>102.257838427927</v>
+        <v>102.253527737603</v>
       </c>
     </row>
     <row r="5">
@@ -3214,13 +3214,13 @@
         <v>175</v>
       </c>
       <c r="B5" t="n">
-        <v>470.060131913442</v>
+        <v>433.599099044208</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>108.086795615104</v>
+        <v>99.7028550507123</v>
       </c>
     </row>
     <row r="6">
@@ -3270,13 +3270,13 @@
         <v>179</v>
       </c>
       <c r="B9" t="n">
-        <v>553.18467537911</v>
+        <v>555.073053457433</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>101.952482657018</v>
+        <v>102.300512604066</v>
       </c>
     </row>
     <row r="10">
@@ -3340,13 +3340,13 @@
         <v>184</v>
       </c>
       <c r="B14" t="n">
-        <v>352.474857188663</v>
+        <v>365.917614839185</v>
       </c>
       <c r="C14" t="n">
         <v>3.56459581811847</v>
       </c>
       <c r="D14" t="n">
-        <v>98.8821384452818</v>
+        <v>102.653325512885</v>
       </c>
     </row>
     <row r="15">
@@ -3354,13 +3354,13 @@
         <v>185</v>
       </c>
       <c r="B15" t="n">
-        <v>296.698594043964</v>
+        <v>283.497986928611</v>
       </c>
       <c r="C15" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D15" t="n">
-        <v>103.25733502655</v>
+        <v>98.6632468211242</v>
       </c>
     </row>
     <row r="16">
@@ -3368,13 +3368,13 @@
         <v>186</v>
       </c>
       <c r="B16" t="n">
-        <v>30.7710634827386</v>
+        <v>30.7702272854229</v>
       </c>
       <c r="C16" t="n">
         <v>0.309062256997545</v>
       </c>
       <c r="D16" t="n">
-        <v>99.56266993476</v>
+        <v>99.5599643397003</v>
       </c>
     </row>
     <row r="17">
@@ -3452,13 +3452,13 @@
         <v>192</v>
       </c>
       <c r="B22" t="n">
-        <v>78.9246755134956</v>
+        <v>86.7075555948495</v>
       </c>
       <c r="C22" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D22" t="n">
-        <v>91.3420963075678</v>
+        <v>100.349476791758</v>
       </c>
     </row>
     <row r="23">
@@ -3494,13 +3494,13 @@
         <v>195</v>
       </c>
       <c r="B25" t="n">
-        <v>359.624388131187</v>
+        <v>359.364767714821</v>
       </c>
       <c r="C25" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D25" t="n">
-        <v>96.6622003288248</v>
+        <v>96.5924178515387</v>
       </c>
     </row>
     <row r="26">
@@ -3620,13 +3620,13 @@
         <v>204</v>
       </c>
       <c r="B34" t="n">
-        <v>277.439645487298</v>
+        <v>275.170403991473</v>
       </c>
       <c r="C34" t="n">
         <v>2.73125404180515</v>
       </c>
       <c r="D34" t="n">
-        <v>101.57958258029</v>
+        <v>100.748740241536</v>
       </c>
     </row>
     <row r="35">
@@ -3634,13 +3634,13 @@
         <v>205</v>
       </c>
       <c r="B35" t="n">
-        <v>198.395728428153</v>
+        <v>198.393030770718</v>
       </c>
       <c r="C35" t="n">
         <v>1.968740859074</v>
       </c>
       <c r="D35" t="n">
-        <v>100.772901376908</v>
+        <v>100.771531131848</v>
       </c>
     </row>
     <row r="36">
@@ -3648,13 +3648,13 @@
         <v>206</v>
       </c>
       <c r="B36" t="n">
-        <v>241.567867561555</v>
+        <v>242.430465747144</v>
       </c>
       <c r="C36" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D36" t="n">
-        <v>99.2685617085239</v>
+        <v>99.6230330298971</v>
       </c>
     </row>
     <row r="37">
@@ -3690,13 +3690,13 @@
         <v>209</v>
       </c>
       <c r="B39" t="n">
-        <v>237.48737150014</v>
+        <v>246.807901260168</v>
       </c>
       <c r="C39" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D39" t="n">
-        <v>95.9317123469164</v>
+        <v>99.6966888768764</v>
       </c>
     </row>
     <row r="40">
@@ -3704,13 +3704,13 @@
         <v>210</v>
       </c>
       <c r="B40" t="n">
-        <v>146.607824130039</v>
+        <v>147.419626487383</v>
       </c>
       <c r="C40" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D40" t="n">
-        <v>102.090386243568</v>
+        <v>102.655684969652</v>
       </c>
     </row>
     <row r="41">
@@ -3718,13 +3718,13 @@
         <v>211</v>
       </c>
       <c r="B41" t="n">
-        <v>324.962692195835</v>
+        <v>347.886422255812</v>
       </c>
       <c r="C41" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D41" t="n">
-        <v>100.679987131412</v>
+        <v>107.782220411938</v>
       </c>
     </row>
     <row r="42">
@@ -3746,13 +3746,13 @@
         <v>213</v>
       </c>
       <c r="B43" t="n">
-        <v>70.2221640167015</v>
+        <v>68.9982233799247</v>
       </c>
       <c r="C43" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D43" t="n">
-        <v>96.6995129114446</v>
+        <v>95.0140840291804</v>
       </c>
     </row>
     <row r="44">
@@ -3760,13 +3760,13 @@
         <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>438.095109610693</v>
+        <v>480.612854058491</v>
       </c>
       <c r="C44" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D44" t="n">
-        <v>92.2253261503492</v>
+        <v>101.175923321726</v>
       </c>
     </row>
     <row r="45">
@@ -3788,13 +3788,13 @@
         <v>216</v>
       </c>
       <c r="B46" t="n">
-        <v>91.161635134798</v>
+        <v>91.9325409069588</v>
       </c>
       <c r="C46" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D46" t="n">
-        <v>110.894958627137</v>
+        <v>111.832738687607</v>
       </c>
     </row>
     <row r="47">
@@ -3830,13 +3830,13 @@
         <v>219</v>
       </c>
       <c r="B49" t="n">
-        <v>100.903864846098</v>
+        <v>100.867168421939</v>
       </c>
       <c r="C49" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D49" t="n">
-        <v>99.2906081592309</v>
+        <v>99.2544984395721</v>
       </c>
     </row>
     <row r="50">
@@ -3858,13 +3858,13 @@
         <v>221</v>
       </c>
       <c r="B51" t="n">
-        <v>18.0762459239864</v>
+        <v>19.2114822268247</v>
       </c>
       <c r="C51" t="n">
         <v>0.191526725190851</v>
       </c>
       <c r="D51" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="52">
@@ -3942,13 +3942,13 @@
         <v>227</v>
       </c>
       <c r="B57" t="n">
-        <v>203.228061087773</v>
+        <v>203.197427917756</v>
       </c>
       <c r="C57" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D57" t="n">
-        <v>101.71563360402</v>
+        <v>101.700301704081</v>
       </c>
     </row>
     <row r="58">
@@ -4124,13 +4124,13 @@
         <v>240</v>
       </c>
       <c r="B70" t="n">
-        <v>82.8523773030584</v>
+        <v>82.8444699088496</v>
       </c>
       <c r="C70" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D70" t="n">
-        <v>100.161378472096</v>
+        <v>100.151819114478</v>
       </c>
     </row>
   </sheetData>
@@ -4180,13 +4180,13 @@
         <v>243</v>
       </c>
       <c r="B3" t="n">
-        <v>63.5249941314526</v>
+        <v>63.0159328911504</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>96.9180654715982</v>
+        <v>96.1414069092288</v>
       </c>
     </row>
     <row r="4">
@@ -4194,13 +4194,13 @@
         <v>244</v>
       </c>
       <c r="B4" t="n">
-        <v>180.76651774564</v>
+        <v>180.758897513384</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>102.257838427927</v>
+        <v>102.253527737603</v>
       </c>
     </row>
     <row r="5">
@@ -4208,13 +4208,13 @@
         <v>245</v>
       </c>
       <c r="B5" t="n">
-        <v>470.060131913442</v>
+        <v>433.599099044208</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>108.086795615104</v>
+        <v>99.7028550507123</v>
       </c>
     </row>
     <row r="6">
@@ -4250,13 +4250,13 @@
         <v>248</v>
       </c>
       <c r="B8" t="n">
-        <v>1289.5677983328</v>
+        <v>1304.89893406164</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>100.571593799067</v>
+        <v>101.767247689458</v>
       </c>
     </row>
     <row r="9">
@@ -4264,13 +4264,13 @@
         <v>249</v>
       </c>
       <c r="B9" t="n">
-        <v>296.698594043964</v>
+        <v>283.497986928611</v>
       </c>
       <c r="C9" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D9" t="n">
-        <v>103.25733502655</v>
+        <v>98.6632468211242</v>
       </c>
     </row>
     <row r="10">
@@ -4278,13 +4278,13 @@
         <v>250</v>
       </c>
       <c r="B10" t="n">
-        <v>497.609276230525</v>
+        <v>497.608440033209</v>
       </c>
       <c r="C10" t="n">
         <v>4.98662799130946</v>
       </c>
       <c r="D10" t="n">
-        <v>99.7887304001307</v>
+        <v>99.7885627122027</v>
       </c>
     </row>
     <row r="11">
@@ -4306,13 +4306,13 @@
         <v>252</v>
       </c>
       <c r="B12" t="n">
-        <v>117.388532604674</v>
+        <v>125.171412686028</v>
       </c>
       <c r="C12" t="n">
         <v>1.24869445208775</v>
       </c>
       <c r="D12" t="n">
-        <v>94.0090126999496</v>
+        <v>100.241826554725</v>
       </c>
     </row>
     <row r="13">
@@ -4334,13 +4334,13 @@
         <v>254</v>
       </c>
       <c r="B14" t="n">
-        <v>359.624388131187</v>
+        <v>359.364767714821</v>
       </c>
       <c r="C14" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D14" t="n">
-        <v>96.6622003288248</v>
+        <v>96.5924178515387</v>
       </c>
     </row>
     <row r="15">
@@ -4404,13 +4404,13 @@
         <v>259</v>
       </c>
       <c r="B19" t="n">
-        <v>415.058587643</v>
+        <v>412.789346147175</v>
       </c>
       <c r="C19" t="n">
         <v>4.12715381328589</v>
       </c>
       <c r="D19" t="n">
-        <v>100.567753570722</v>
+        <v>100.017921507638</v>
       </c>
     </row>
     <row r="20">
@@ -4418,13 +4418,13 @@
         <v>260</v>
       </c>
       <c r="B20" t="n">
-        <v>439.963595989708</v>
+        <v>440.823496517862</v>
       </c>
       <c r="C20" t="n">
         <v>4.40221892507898</v>
       </c>
       <c r="D20" t="n">
-        <v>99.9413258353148</v>
+        <v>100.136659266657</v>
       </c>
     </row>
     <row r="21">
@@ -4432,13 +4432,13 @@
         <v>261</v>
       </c>
       <c r="B21" t="n">
-        <v>487.581773174078</v>
+        <v>497.71410529145</v>
       </c>
       <c r="C21" t="n">
         <v>4.98260867915758</v>
       </c>
       <c r="D21" t="n">
-        <v>97.8567261791296</v>
+        <v>99.8902657905697</v>
       </c>
     </row>
     <row r="22">
@@ -4446,13 +4446,13 @@
         <v>262</v>
       </c>
       <c r="B22" t="n">
-        <v>324.962692195835</v>
+        <v>347.886422255812</v>
       </c>
       <c r="C22" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D22" t="n">
-        <v>100.679987131412</v>
+        <v>107.782220411938</v>
       </c>
     </row>
     <row r="23">
@@ -4460,13 +4460,13 @@
         <v>263</v>
       </c>
       <c r="B23" t="n">
-        <v>85.8029884321592</v>
+        <v>84.5790477953824</v>
       </c>
       <c r="C23" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D23" t="n">
-        <v>97.6081654722842</v>
+        <v>96.2158293498981</v>
       </c>
     </row>
     <row r="24">
@@ -4474,13 +4474,13 @@
         <v>264</v>
       </c>
       <c r="B24" t="n">
-        <v>438.095109610693</v>
+        <v>480.612854058491</v>
       </c>
       <c r="C24" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D24" t="n">
-        <v>92.2253261503492</v>
+        <v>101.175923321726</v>
       </c>
     </row>
     <row r="25">
@@ -4502,13 +4502,13 @@
         <v>266</v>
       </c>
       <c r="B26" t="n">
-        <v>438.934694851746</v>
+        <v>440.804140502585</v>
       </c>
       <c r="C26" t="n">
         <v>4.31627944598932</v>
       </c>
       <c r="D26" t="n">
-        <v>101.692835309726</v>
+        <v>102.125950374269</v>
       </c>
     </row>
     <row r="27">
@@ -4572,13 +4572,13 @@
         <v>271</v>
       </c>
       <c r="B31" t="n">
-        <v>203.228061087773</v>
+        <v>203.197427917756</v>
       </c>
       <c r="C31" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D31" t="n">
-        <v>101.71563360402</v>
+        <v>101.700301704081</v>
       </c>
     </row>
     <row r="32">
@@ -4740,13 +4740,13 @@
         <v>283</v>
       </c>
       <c r="B43" t="n">
-        <v>82.8523773030584</v>
+        <v>82.8444699088496</v>
       </c>
       <c r="C43" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D43" t="n">
-        <v>100.161378472096</v>
+        <v>100.151819114478</v>
       </c>
     </row>
   </sheetData>
@@ -4782,13 +4782,13 @@
         <v>285</v>
       </c>
       <c r="B2" t="n">
-        <v>3379.76489018013</v>
+        <v>3344.91770445183</v>
       </c>
       <c r="C2" t="n">
         <v>33.2569567049005</v>
       </c>
       <c r="D2" t="n">
-        <v>101.625801788476</v>
+        <v>100.577985356037</v>
       </c>
     </row>
     <row r="3">
@@ -4796,13 +4796,13 @@
         <v>286</v>
       </c>
       <c r="B3" t="n">
-        <v>497.609276230525</v>
+        <v>497.608440033209</v>
       </c>
       <c r="C3" t="n">
         <v>4.98662799130946</v>
       </c>
       <c r="D3" t="n">
-        <v>99.7887304001307</v>
+        <v>99.7885627122027</v>
       </c>
     </row>
     <row r="4">
@@ -4824,13 +4824,13 @@
         <v>288</v>
       </c>
       <c r="B5" t="n">
-        <v>204.803805790492</v>
+        <v>212.586685871846</v>
       </c>
       <c r="C5" t="n">
         <v>2.12634831254182</v>
       </c>
       <c r="D5" t="n">
-        <v>96.3171483159645</v>
+        <v>99.9773577160182</v>
       </c>
     </row>
     <row r="6">
@@ -4838,13 +4838,13 @@
         <v>289</v>
       </c>
       <c r="B6" t="n">
-        <v>359.624388131187</v>
+        <v>359.364767714821</v>
       </c>
       <c r="C6" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D6" t="n">
-        <v>96.6622003288248</v>
+        <v>96.5924178515387</v>
       </c>
     </row>
     <row r="7">
@@ -4880,13 +4880,13 @@
         <v>292</v>
       </c>
       <c r="B9" t="n">
-        <v>415.058587643</v>
+        <v>412.789346147175</v>
       </c>
       <c r="C9" t="n">
         <v>4.12715381328589</v>
       </c>
       <c r="D9" t="n">
-        <v>100.567753570722</v>
+        <v>100.017921507638</v>
       </c>
     </row>
     <row r="10">
@@ -4894,13 +4894,13 @@
         <v>293</v>
       </c>
       <c r="B10" t="n">
-        <v>927.545369163785</v>
+        <v>938.537601809311</v>
       </c>
       <c r="C10" t="n">
         <v>9.38482760423656</v>
       </c>
       <c r="D10" t="n">
-        <v>98.8345666301922</v>
+        <v>100.005843622064</v>
       </c>
     </row>
     <row r="11">
@@ -4908,13 +4908,13 @@
         <v>294</v>
       </c>
       <c r="B11" t="n">
-        <v>324.962692195835</v>
+        <v>347.886422255812</v>
       </c>
       <c r="C11" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D11" t="n">
-        <v>100.679987131412</v>
+        <v>107.782220411938</v>
       </c>
     </row>
     <row r="12">
@@ -4922,13 +4922,13 @@
         <v>295</v>
       </c>
       <c r="B12" t="n">
-        <v>523.898098042852</v>
+        <v>565.191901853874</v>
       </c>
       <c r="C12" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D12" t="n">
-        <v>93.0658913377836</v>
+        <v>100.4013725559</v>
       </c>
     </row>
     <row r="13">
@@ -4936,13 +4936,13 @@
         <v>296</v>
       </c>
       <c r="B13" t="n">
-        <v>489.946152745056</v>
+        <v>491.815598395895</v>
       </c>
       <c r="C13" t="n">
         <v>4.82560808866417</v>
       </c>
       <c r="D13" t="n">
-        <v>101.530448337897</v>
+        <v>101.917849390053</v>
       </c>
     </row>
     <row r="14">
@@ -4964,13 +4964,13 @@
         <v>298</v>
       </c>
       <c r="B15" t="n">
-        <v>280.116058639676</v>
+        <v>280.08542546966</v>
       </c>
       <c r="C15" t="n">
         <v>2.80965645935818</v>
       </c>
       <c r="D15" t="n">
-        <v>99.6976187984436</v>
+        <v>99.6867159815123</v>
       </c>
     </row>
     <row r="16">
@@ -5034,13 +5034,13 @@
         <v>303</v>
       </c>
       <c r="B20" t="n">
-        <v>200.318907166909</v>
+        <v>200.3109997727</v>
       </c>
       <c r="C20" t="n">
         <v>1.99907507272891</v>
       </c>
       <c r="D20" t="n">
-        <v>100.205795119768</v>
+        <v>100.201839593377</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +5070,7 @@
         <v>305</v>
       </c>
       <c r="B2" t="n">
-        <v>99.6175854988396</v>
+        <v>100.118413155566</v>
       </c>
     </row>
   </sheetData>
@@ -5142,6 +5142,16 @@
         <v>316</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5163,31 +5173,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
         <v>322</v>
       </c>
     </row>

--- a/ind_JULIO.xlsx
+++ b/ind_JULIO.xlsx
@@ -966,28 +966,28 @@
     <t xml:space="preserve">C11011104</t>
   </si>
   <si>
+    <t xml:space="preserve">C10401101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25991107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11031101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10401301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30911101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10201201</t>
   </si>
   <si>
-    <t xml:space="preserve">C10401101</t>
+    <t xml:space="preserve">C23941101</t>
   </si>
   <si>
     <t xml:space="preserve">C28251103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25991107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11031101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10401301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30911101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23941101</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>105.614201246684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>86.7527573985088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>96.748550541874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>99.2439659629222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1492,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1580,7 +1580,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>100.000642155876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1604,7 +1604,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>100.587669723539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1812,7 +1812,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>95.0140840291804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1868,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1956,7 +1956,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1964,7 +1964,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1980,7 +1980,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1988,7 +1988,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>99.3126057597076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2136,13 +2136,13 @@
         <v>99</v>
       </c>
       <c r="B6" t="n">
-        <v>63.0159328911504</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>96.1414069092288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2164,13 +2164,13 @@
         <v>101</v>
       </c>
       <c r="B8" t="n">
-        <v>433.599099044208</v>
+        <v>320.345244032802</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>99.7028550507123</v>
+        <v>73.6609820047877</v>
       </c>
     </row>
     <row r="9">
@@ -2248,13 +2248,13 @@
         <v>107</v>
       </c>
       <c r="B14" t="n">
-        <v>311.483333918753</v>
+        <v>72.5746536471688</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>100.099546212921</v>
+        <v>23.3228847439279</v>
       </c>
     </row>
     <row r="15">
@@ -2388,13 +2388,13 @@
         <v>117</v>
       </c>
       <c r="B24" t="n">
-        <v>76.4605639124364</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0.764600729195854</v>
       </c>
       <c r="D24" t="n">
-        <v>100.000642155876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2416,13 +2416,13 @@
         <v>119</v>
       </c>
       <c r="B26" t="n">
-        <v>18.780377444629</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D26" t="n">
-        <v>100.587669723539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2752,13 +2752,13 @@
         <v>143</v>
       </c>
       <c r="B50" t="n">
-        <v>68.9982233799247</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D50" t="n">
-        <v>95.0140840291804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2822,13 +2822,13 @@
         <v>148</v>
       </c>
       <c r="B55" t="n">
-        <v>218.976131329872</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>2.18976131329872</v>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2892,13 +2892,13 @@
         <v>153</v>
       </c>
       <c r="B60" t="n">
-        <v>18.7038746694366</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0.187038746694366</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2976,13 +2976,13 @@
         <v>159</v>
       </c>
       <c r="B66" t="n">
-        <v>49.9411129194166</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0.499411129194166</v>
       </c>
       <c r="D66" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2990,13 +2990,13 @@
         <v>160</v>
       </c>
       <c r="B67" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3018,13 +3018,13 @@
         <v>162</v>
       </c>
       <c r="B69" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3032,13 +3032,13 @@
         <v>163</v>
       </c>
       <c r="B70" t="n">
-        <v>247.169950647691</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>2.48880742537088</v>
       </c>
       <c r="D70" t="n">
-        <v>99.3126057597076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3186,13 +3186,13 @@
         <v>173</v>
       </c>
       <c r="B3" t="n">
-        <v>63.0159328911504</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>96.1414069092288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3214,13 +3214,13 @@
         <v>175</v>
       </c>
       <c r="B5" t="n">
-        <v>433.599099044208</v>
+        <v>320.345244032802</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>99.7028550507123</v>
+        <v>73.6609820047877</v>
       </c>
     </row>
     <row r="6">
@@ -3270,13 +3270,13 @@
         <v>179</v>
       </c>
       <c r="B9" t="n">
-        <v>555.073053457433</v>
+        <v>316.164373185849</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>102.300512604066</v>
+        <v>58.2694065989928</v>
       </c>
     </row>
     <row r="10">
@@ -3396,13 +3396,13 @@
         <v>188</v>
       </c>
       <c r="B18" t="n">
-        <v>76.4605639124364</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0.764600729195854</v>
       </c>
       <c r="D18" t="n">
-        <v>100.000642155876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3424,13 +3424,13 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>18.780377444629</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D20" t="n">
-        <v>100.587669723539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3746,13 +3746,13 @@
         <v>213</v>
       </c>
       <c r="B43" t="n">
-        <v>68.9982233799247</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D43" t="n">
-        <v>95.0140840291804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3816,13 +3816,13 @@
         <v>218</v>
       </c>
       <c r="B48" t="n">
-        <v>218.976131329872</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>2.18976131329872</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3886,13 +3886,13 @@
         <v>223</v>
       </c>
       <c r="B53" t="n">
-        <v>18.7038746694366</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0.187038746694366</v>
       </c>
       <c r="D53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3970,13 +3970,13 @@
         <v>229</v>
       </c>
       <c r="B59" t="n">
-        <v>49.9411129194166</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0.499411129194166</v>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3984,13 +3984,13 @@
         <v>230</v>
       </c>
       <c r="B60" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4012,13 +4012,13 @@
         <v>232</v>
       </c>
       <c r="B62" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4026,13 +4026,13 @@
         <v>233</v>
       </c>
       <c r="B63" t="n">
-        <v>247.169950647691</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>2.48880742537088</v>
       </c>
       <c r="D63" t="n">
-        <v>99.3126057597076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4180,13 +4180,13 @@
         <v>243</v>
       </c>
       <c r="B3" t="n">
-        <v>63.0159328911504</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>96.1414069092288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4208,13 +4208,13 @@
         <v>245</v>
       </c>
       <c r="B5" t="n">
-        <v>433.599099044208</v>
+        <v>320.345244032802</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>99.7028550507123</v>
+        <v>73.6609820047877</v>
       </c>
     </row>
     <row r="6">
@@ -4250,13 +4250,13 @@
         <v>248</v>
       </c>
       <c r="B8" t="n">
-        <v>1304.89893406164</v>
+        <v>1065.99025379006</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>101.767247689458</v>
+        <v>83.1350929641239</v>
       </c>
     </row>
     <row r="9">
@@ -4278,13 +4278,13 @@
         <v>250</v>
       </c>
       <c r="B10" t="n">
-        <v>497.608440033209</v>
+        <v>421.147876120773</v>
       </c>
       <c r="C10" t="n">
         <v>4.98662799130946</v>
       </c>
       <c r="D10" t="n">
-        <v>99.7885627122027</v>
+        <v>84.4554430077271</v>
       </c>
     </row>
     <row r="11">
@@ -4292,13 +4292,13 @@
         <v>251</v>
       </c>
       <c r="B11" t="n">
-        <v>18.780377444629</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D11" t="n">
-        <v>100.587669723539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4460,13 +4460,13 @@
         <v>263</v>
       </c>
       <c r="B23" t="n">
-        <v>84.5790477953824</v>
+        <v>15.5808244154576</v>
       </c>
       <c r="C23" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D23" t="n">
-        <v>96.2158293498981</v>
+        <v>17.7245072173802</v>
       </c>
     </row>
     <row r="24">
@@ -4502,13 +4502,13 @@
         <v>266</v>
       </c>
       <c r="B26" t="n">
-        <v>440.804140502585</v>
+        <v>221.828009172713</v>
       </c>
       <c r="C26" t="n">
         <v>4.31627944598932</v>
       </c>
       <c r="D26" t="n">
-        <v>102.125950374269</v>
+        <v>51.3933381627631</v>
       </c>
     </row>
     <row r="27">
@@ -4530,13 +4530,13 @@
         <v>268</v>
       </c>
       <c r="B28" t="n">
-        <v>18.7038746694366</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0.187038746694366</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4600,13 +4600,13 @@
         <v>273</v>
       </c>
       <c r="B33" t="n">
-        <v>49.9411129194166</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0.499411129194166</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4614,13 +4614,13 @@
         <v>274</v>
       </c>
       <c r="B34" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4642,13 +4642,13 @@
         <v>276</v>
       </c>
       <c r="B36" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4656,13 +4656,13 @@
         <v>277</v>
       </c>
       <c r="B37" t="n">
-        <v>247.169950647691</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>2.48880742537088</v>
       </c>
       <c r="D37" t="n">
-        <v>99.3126057597076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4782,13 +4782,13 @@
         <v>285</v>
       </c>
       <c r="B2" t="n">
-        <v>3344.91770445183</v>
+        <v>2929.73923627769</v>
       </c>
       <c r="C2" t="n">
         <v>33.2569567049005</v>
       </c>
       <c r="D2" t="n">
-        <v>100.577985356037</v>
+        <v>88.0940268309634</v>
       </c>
     </row>
     <row r="3">
@@ -4796,13 +4796,13 @@
         <v>286</v>
       </c>
       <c r="B3" t="n">
-        <v>497.608440033209</v>
+        <v>421.147876120773</v>
       </c>
       <c r="C3" t="n">
         <v>4.98662799130946</v>
       </c>
       <c r="D3" t="n">
-        <v>99.7885627122027</v>
+        <v>84.4554430077271</v>
       </c>
     </row>
     <row r="4">
@@ -4810,13 +4810,13 @@
         <v>287</v>
       </c>
       <c r="B4" t="n">
-        <v>18.780377444629</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D4" t="n">
-        <v>100.587669723539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4922,13 +4922,13 @@
         <v>295</v>
       </c>
       <c r="B12" t="n">
-        <v>565.191901853874</v>
+        <v>496.193678473949</v>
       </c>
       <c r="C12" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D12" t="n">
-        <v>100.4013725559</v>
+        <v>88.1444447610392</v>
       </c>
     </row>
     <row r="13">
@@ -4936,13 +4936,13 @@
         <v>296</v>
       </c>
       <c r="B13" t="n">
-        <v>491.815598395895</v>
+        <v>272.839467066023</v>
       </c>
       <c r="C13" t="n">
         <v>4.82560808866417</v>
       </c>
       <c r="D13" t="n">
-        <v>101.917849390053</v>
+        <v>56.5399141523635</v>
       </c>
     </row>
     <row r="14">
@@ -4950,13 +4950,13 @@
         <v>297</v>
       </c>
       <c r="B14" t="n">
-        <v>644.416666012812</v>
+        <v>625.712791343376</v>
       </c>
       <c r="C14" t="n">
         <v>6.853131317553</v>
       </c>
       <c r="D14" t="n">
-        <v>94.0324409605665</v>
+        <v>91.3031959187372</v>
       </c>
     </row>
     <row r="15">
@@ -4978,13 +4978,13 @@
         <v>299</v>
       </c>
       <c r="B16" t="n">
-        <v>232.985182273873</v>
+        <v>183.044069354457</v>
       </c>
       <c r="C16" t="n">
         <v>2.27646468591236</v>
       </c>
       <c r="D16" t="n">
-        <v>102.345177465601</v>
+        <v>80.4071640061909</v>
       </c>
     </row>
     <row r="17">
@@ -4992,13 +4992,13 @@
         <v>300</v>
       </c>
       <c r="B17" t="n">
-        <v>113.302528853091</v>
+        <v>64.5771099834744</v>
       </c>
       <c r="C17" t="n">
         <v>1.16952660241937</v>
       </c>
       <c r="D17" t="n">
-        <v>96.8789667705766</v>
+        <v>55.2164524089366</v>
       </c>
     </row>
     <row r="18">
@@ -5006,13 +5006,13 @@
         <v>301</v>
       </c>
       <c r="B18" t="n">
-        <v>309.614258855587</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>3.11325050744984</v>
       </c>
       <c r="D18" t="n">
-        <v>99.4504804912733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5070,7 +5070,7 @@
         <v>305</v>
       </c>
       <c r="B2" t="n">
-        <v>100.118413155566</v>
+        <v>87.1838186870956</v>
       </c>
     </row>
   </sheetData>
@@ -5142,16 +5142,6 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>318</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5173,21 +5163,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>322</v>
       </c>
     </row>
